--- a/data/raw_data/Picnic_Table_Data.xlsx
+++ b/data/raw_data/Picnic_Table_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MADA\KimberlyPerez-MADA-project\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9F7920-5B48-434F-BFE8-CD752305BC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B086A6-5D2C-4ADD-B714-43D7AF3837A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminary Data" sheetId="1" r:id="rId1"/>
@@ -1372,7 +1372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1441,11 +1441,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1487,6 +1502,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1704,11 +1722,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G170" workbookViewId="0">
+      <selection activeCell="L193" sqref="L193"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.54296875" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="41" customWidth="1"/>
+    <col min="13" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1745,7 +1770,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="4"/>
@@ -1795,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1842,7 +1867,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
+      <c r="L3" s="39"/>
       <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1889,7 +1914,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
+      <c r="L4" s="39"/>
       <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1939,7 +1964,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
+      <c r="L5" s="39"/>
       <c r="M5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1986,7 +2011,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -2032,7 +2057,9 @@
         <v>16</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="40">
+        <v>1</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -2078,7 +2105,9 @@
         <v>16</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="40">
+        <v>1</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -2126,7 +2155,7 @@
         <v>16</v>
       </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -2171,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2218,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2263,7 +2292,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="39"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2309,7 +2338,9 @@
         <v>16</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="40">
+        <v>1</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -2355,7 +2386,9 @@
         <v>16</v>
       </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="40">
+        <v>1</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -2400,7 +2433,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="39"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2445,7 +2478,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="39"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -2490,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="39"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2535,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="39"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2581,7 +2614,9 @@
         <v>16</v>
       </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="9"/>
+      <c r="L19" s="40">
+        <v>1</v>
+      </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2626,7 +2661,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="39"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2672,7 +2707,9 @@
         <v>16</v>
       </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="9"/>
+      <c r="L21" s="40">
+        <v>1</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -2717,7 +2754,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2763,7 +2800,9 @@
         <v>16</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="40">
+        <v>1</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2808,7 +2847,7 @@
         <v>16</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="39"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2854,7 +2893,9 @@
         <v>16</v>
       </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="9"/>
+      <c r="L25" s="40">
+        <v>1</v>
+      </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2900,7 +2941,9 @@
       <c r="K26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="9"/>
+      <c r="L26" s="40">
+        <v>1</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2945,7 +2988,7 @@
       <c r="K27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27" s="39"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -2990,7 +3033,7 @@
       <c r="K28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L28" s="4"/>
+      <c r="L28" s="39"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -3035,7 +3078,7 @@
       <c r="K29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29" s="39"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -3083,7 +3126,7 @@
         <v>55</v>
       </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
+      <c r="L30" s="39"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -3128,7 +3171,7 @@
         <v>55</v>
       </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
+      <c r="L31" s="39"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -3173,7 +3216,7 @@
         <v>58</v>
       </c>
       <c r="K32" s="3"/>
-      <c r="L32" s="4"/>
+      <c r="L32" s="39"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -3218,7 +3261,7 @@
         <v>55</v>
       </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="4"/>
+      <c r="L33" s="39"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -3263,7 +3306,7 @@
       <c r="K34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L34" s="4"/>
+      <c r="L34" s="39"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -3308,7 +3351,7 @@
       <c r="K35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L35" s="4"/>
+      <c r="L35" s="39"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -3353,7 +3396,7 @@
       <c r="K36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L36" s="4"/>
+      <c r="L36" s="39"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -3399,7 +3442,9 @@
       <c r="K37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L37" s="9"/>
+      <c r="L37" s="40">
+        <v>1</v>
+      </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -3444,7 +3489,7 @@
         <v>55</v>
       </c>
       <c r="K38" s="3"/>
-      <c r="L38" s="4"/>
+      <c r="L38" s="39"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -3489,7 +3534,7 @@
         <v>55</v>
       </c>
       <c r="K39" s="3"/>
-      <c r="L39" s="4"/>
+      <c r="L39" s="39"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -3535,7 +3580,9 @@
         <v>55</v>
       </c>
       <c r="K40" s="3"/>
-      <c r="L40" s="9"/>
+      <c r="L40" s="40">
+        <v>1</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -3580,7 +3627,7 @@
         <v>58</v>
       </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="4"/>
+      <c r="L41" s="39"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -3625,7 +3672,7 @@
       <c r="K42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L42" s="4"/>
+      <c r="L42" s="39"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -3671,7 +3718,9 @@
       <c r="K43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L43" s="9"/>
+      <c r="L43" s="40">
+        <v>1</v>
+      </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
@@ -3719,7 +3768,7 @@
       <c r="K44" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L44" s="4"/>
+      <c r="L44" s="39"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -3764,7 +3813,7 @@
       <c r="K45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L45" s="4"/>
+      <c r="L45" s="39"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -3810,7 +3859,9 @@
         <v>55</v>
       </c>
       <c r="K46" s="8"/>
-      <c r="L46" s="9"/>
+      <c r="L46" s="40">
+        <v>1</v>
+      </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -3856,7 +3907,9 @@
         <v>55</v>
       </c>
       <c r="K47" s="8"/>
-      <c r="L47" s="9"/>
+      <c r="L47" s="40">
+        <v>1</v>
+      </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -3901,7 +3954,7 @@
         <v>55</v>
       </c>
       <c r="K48" s="8"/>
-      <c r="L48" s="4"/>
+      <c r="L48" s="39"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -3947,7 +4000,9 @@
         <v>58</v>
       </c>
       <c r="K49" s="8"/>
-      <c r="L49" s="9"/>
+      <c r="L49" s="40">
+        <v>1</v>
+      </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
@@ -3992,7 +4047,7 @@
       <c r="K50" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L50" s="4"/>
+      <c r="L50" s="39"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -4037,7 +4092,7 @@
       <c r="K51" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L51" s="4"/>
+      <c r="L51" s="39"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -4082,7 +4137,7 @@
       <c r="K52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L52" s="4"/>
+      <c r="L52" s="39"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -4127,7 +4182,7 @@
       <c r="K53" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L53" s="4"/>
+      <c r="L53" s="39"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -4173,7 +4228,9 @@
         <v>55</v>
       </c>
       <c r="K54" s="8"/>
-      <c r="L54" s="9"/>
+      <c r="L54" s="40">
+        <v>1</v>
+      </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
@@ -4218,7 +4275,7 @@
         <v>55</v>
       </c>
       <c r="K55" s="8"/>
-      <c r="L55" s="4"/>
+      <c r="L55" s="39"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -4263,7 +4320,7 @@
         <v>55</v>
       </c>
       <c r="K56" s="8"/>
-      <c r="L56" s="4"/>
+      <c r="L56" s="39"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -4309,7 +4366,9 @@
         <v>55</v>
       </c>
       <c r="K57" s="8"/>
-      <c r="L57" s="9"/>
+      <c r="L57" s="40">
+        <v>1</v>
+      </c>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
@@ -4354,7 +4413,7 @@
       <c r="K58" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L58" s="4"/>
+      <c r="L58" s="39"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -4399,7 +4458,7 @@
       <c r="K59" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="4"/>
+      <c r="L59" s="39"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -4444,7 +4503,7 @@
       <c r="K60" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L60" s="4"/>
+      <c r="L60" s="39"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -4489,7 +4548,7 @@
       <c r="K61" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L61" s="4"/>
+      <c r="L61" s="39"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -4534,7 +4593,7 @@
         <v>55</v>
       </c>
       <c r="K62" s="8"/>
-      <c r="L62" s="4"/>
+      <c r="L62" s="39"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -4579,7 +4638,7 @@
         <v>55</v>
       </c>
       <c r="K63" s="8"/>
-      <c r="L63" s="4"/>
+      <c r="L63" s="39"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -4624,7 +4683,7 @@
         <v>55</v>
       </c>
       <c r="K64" s="8"/>
-      <c r="L64" s="4"/>
+      <c r="L64" s="39"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -4669,7 +4728,7 @@
         <v>55</v>
       </c>
       <c r="K65" s="8"/>
-      <c r="L65" s="4"/>
+      <c r="L65" s="39"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -4714,7 +4773,9 @@
       <c r="K66" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L66" s="4"/>
+      <c r="L66" s="39">
+        <v>1</v>
+      </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -4759,7 +4820,7 @@
       <c r="K67" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L67" s="4"/>
+      <c r="L67" s="39"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -4804,7 +4865,7 @@
       <c r="K68" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L68" s="4"/>
+      <c r="L68" s="39"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -4852,7 +4913,7 @@
       <c r="K69" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L69" s="4"/>
+      <c r="L69" s="39"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -4898,7 +4959,9 @@
         <v>55</v>
       </c>
       <c r="K70" s="8"/>
-      <c r="L70" s="9"/>
+      <c r="L70" s="40">
+        <v>1</v>
+      </c>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
@@ -4944,7 +5007,9 @@
         <v>55</v>
       </c>
       <c r="K71" s="8"/>
-      <c r="L71" s="9"/>
+      <c r="L71" s="40">
+        <v>1</v>
+      </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
@@ -4989,7 +5054,7 @@
         <v>55</v>
       </c>
       <c r="K72" s="8"/>
-      <c r="L72" s="4"/>
+      <c r="L72" s="39"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -5035,7 +5100,9 @@
         <v>55</v>
       </c>
       <c r="K73" s="8"/>
-      <c r="L73" s="9"/>
+      <c r="L73" s="40">
+        <v>1</v>
+      </c>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
@@ -5083,7 +5150,7 @@
       <c r="K74" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L74" s="4"/>
+      <c r="L74" s="39"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -5131,7 +5198,7 @@
       <c r="K75" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L75" s="4"/>
+      <c r="L75" s="39"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -5179,7 +5246,7 @@
       <c r="K76" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L76" s="4"/>
+      <c r="L76" s="39"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -5227,7 +5294,7 @@
       <c r="K77" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L77" s="4"/>
+      <c r="L77" s="39"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -5275,7 +5342,7 @@
         <v>55</v>
       </c>
       <c r="K78" s="3"/>
-      <c r="L78" s="4"/>
+      <c r="L78" s="39"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -5323,7 +5390,7 @@
         <v>55</v>
       </c>
       <c r="K79" s="3"/>
-      <c r="L79" s="4"/>
+      <c r="L79" s="39"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -5371,7 +5438,7 @@
         <v>55</v>
       </c>
       <c r="K80" s="3"/>
-      <c r="L80" s="4"/>
+      <c r="L80" s="39"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -5419,7 +5486,7 @@
         <v>58</v>
       </c>
       <c r="K81" s="3"/>
-      <c r="L81" s="4"/>
+      <c r="L81" s="39"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -5467,7 +5534,7 @@
       <c r="K82" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L82" s="4"/>
+      <c r="L82" s="39"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -5515,7 +5582,7 @@
       <c r="K83" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L83" s="4"/>
+      <c r="L83" s="39"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -5563,7 +5630,7 @@
       <c r="K84" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L84" s="4"/>
+      <c r="L84" s="39"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -5611,7 +5678,9 @@
       <c r="K85" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L85" s="9"/>
+      <c r="L85" s="40">
+        <v>1</v>
+      </c>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
@@ -5659,7 +5728,7 @@
         <v>55</v>
       </c>
       <c r="K86" s="3"/>
-      <c r="L86" s="4"/>
+      <c r="L86" s="39"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -5707,7 +5776,7 @@
         <v>55</v>
       </c>
       <c r="K87" s="3"/>
-      <c r="L87" s="4"/>
+      <c r="L87" s="39"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -5755,7 +5824,7 @@
         <v>58</v>
       </c>
       <c r="K88" s="3"/>
-      <c r="L88" s="4"/>
+      <c r="L88" s="39"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -5803,7 +5872,7 @@
         <v>58</v>
       </c>
       <c r="K89" s="3"/>
-      <c r="L89" s="4"/>
+      <c r="L89" s="39"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -5851,7 +5920,7 @@
       <c r="K90" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L90" s="4"/>
+      <c r="L90" s="39"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -5899,7 +5968,9 @@
       <c r="K91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L91" s="9"/>
+      <c r="L91" s="40">
+        <v>1</v>
+      </c>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
@@ -5947,7 +6018,7 @@
       <c r="K92" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L92" s="4"/>
+      <c r="L92" s="39"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -5995,7 +6066,7 @@
       <c r="K93" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L93" s="4"/>
+      <c r="L93" s="39"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -6043,7 +6114,7 @@
         <v>55</v>
       </c>
       <c r="K94" s="3"/>
-      <c r="L94" s="4"/>
+      <c r="L94" s="39"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -6091,7 +6162,9 @@
         <v>55</v>
       </c>
       <c r="K95" s="8"/>
-      <c r="L95" s="9"/>
+      <c r="L95" s="40">
+        <v>1</v>
+      </c>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
@@ -6139,7 +6212,7 @@
         <v>55</v>
       </c>
       <c r="K96" s="3"/>
-      <c r="L96" s="4"/>
+      <c r="L96" s="39"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -6187,7 +6260,7 @@
         <v>55</v>
       </c>
       <c r="K97" s="3"/>
-      <c r="L97" s="4"/>
+      <c r="L97" s="39"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -6232,7 +6305,7 @@
       <c r="K98" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L98" s="4"/>
+      <c r="L98" s="39"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -6277,7 +6350,7 @@
       <c r="K99" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L99" s="4"/>
+      <c r="L99" s="39"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -6323,7 +6396,9 @@
       <c r="K100" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L100" s="9"/>
+      <c r="L100" s="40">
+        <v>1</v>
+      </c>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
@@ -6368,7 +6443,7 @@
       <c r="K101" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L101" s="4"/>
+      <c r="L101" s="39"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -6414,7 +6489,9 @@
         <v>55</v>
       </c>
       <c r="K102" s="8"/>
-      <c r="L102" s="9"/>
+      <c r="L102" s="40">
+        <v>1</v>
+      </c>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
@@ -6460,7 +6537,9 @@
         <v>55</v>
       </c>
       <c r="K103" s="8"/>
-      <c r="L103" s="9"/>
+      <c r="L103" s="40">
+        <v>1</v>
+      </c>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
@@ -6506,7 +6585,7 @@
         <v>55</v>
       </c>
       <c r="K104" s="8"/>
-      <c r="L104" s="9"/>
+      <c r="L104" s="40"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
@@ -6552,7 +6631,9 @@
         <v>55</v>
       </c>
       <c r="K105" s="8"/>
-      <c r="L105" s="9"/>
+      <c r="L105" s="40">
+        <v>1</v>
+      </c>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
@@ -6597,7 +6678,7 @@
       <c r="K106" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L106" s="4"/>
+      <c r="L106" s="39"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -6642,7 +6723,7 @@
       <c r="K107" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L107" s="4"/>
+      <c r="L107" s="39"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -6688,7 +6769,9 @@
       <c r="K108" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L108" s="9"/>
+      <c r="L108" s="40">
+        <v>1</v>
+      </c>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
@@ -6733,7 +6816,7 @@
       <c r="K109" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L109" s="4"/>
+      <c r="L109" s="39"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -6779,7 +6862,9 @@
         <v>157</v>
       </c>
       <c r="K110" s="8"/>
-      <c r="L110" s="9"/>
+      <c r="L110" s="40">
+        <v>1</v>
+      </c>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
@@ -6825,7 +6910,9 @@
         <v>55</v>
       </c>
       <c r="K111" s="8"/>
-      <c r="L111" s="9"/>
+      <c r="L111" s="40">
+        <v>1</v>
+      </c>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
@@ -6871,7 +6958,9 @@
         <v>55</v>
       </c>
       <c r="K112" s="8"/>
-      <c r="L112" s="9"/>
+      <c r="L112" s="40">
+        <v>1</v>
+      </c>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
@@ -6916,7 +7005,7 @@
         <v>163</v>
       </c>
       <c r="K113" s="3"/>
-      <c r="L113" s="4"/>
+      <c r="L113" s="39"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -6961,7 +7050,7 @@
       <c r="K114" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L114" s="4"/>
+      <c r="L114" s="39"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -7006,7 +7095,7 @@
       <c r="K115" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L115" s="4"/>
+      <c r="L115" s="39"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -7051,7 +7140,7 @@
       <c r="K116" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L116" s="4"/>
+      <c r="L116" s="39"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -7096,7 +7185,7 @@
       <c r="K117" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L117" s="4"/>
+      <c r="L117" s="39"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -7141,7 +7230,7 @@
         <v>55</v>
       </c>
       <c r="K118" s="3"/>
-      <c r="L118" s="4"/>
+      <c r="L118" s="39"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -7186,7 +7275,7 @@
         <v>55</v>
       </c>
       <c r="K119" s="3"/>
-      <c r="L119" s="4"/>
+      <c r="L119" s="39"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -7231,7 +7320,7 @@
         <v>55</v>
       </c>
       <c r="K120" s="3"/>
-      <c r="L120" s="4"/>
+      <c r="L120" s="39"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -7276,7 +7365,7 @@
         <v>172</v>
       </c>
       <c r="K121" s="3"/>
-      <c r="L121" s="4"/>
+      <c r="L121" s="39"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -7324,7 +7413,7 @@
       <c r="K122" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L122" s="9"/>
+      <c r="L122" s="40"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
@@ -7372,7 +7461,7 @@
       <c r="K123" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L123" s="9"/>
+      <c r="L123" s="40"/>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
@@ -7420,7 +7509,7 @@
       <c r="K124" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L124" s="9"/>
+      <c r="L124" s="40"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
@@ -7468,7 +7557,7 @@
       <c r="K125" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L125" s="4"/>
+      <c r="L125" s="39"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -7516,7 +7605,7 @@
         <v>55</v>
       </c>
       <c r="K126" s="3"/>
-      <c r="L126" s="4"/>
+      <c r="L126" s="39"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -7564,7 +7653,7 @@
         <v>55</v>
       </c>
       <c r="K127" s="8"/>
-      <c r="L127" s="9"/>
+      <c r="L127" s="40"/>
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
       <c r="O127" s="9"/>
@@ -7612,7 +7701,9 @@
         <v>55</v>
       </c>
       <c r="K128" s="8"/>
-      <c r="L128" s="9"/>
+      <c r="L128" s="40">
+        <v>1</v>
+      </c>
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
       <c r="O128" s="9"/>
@@ -7660,7 +7751,7 @@
         <v>55</v>
       </c>
       <c r="K129" s="3"/>
-      <c r="L129" s="4"/>
+      <c r="L129" s="39"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -7708,7 +7799,7 @@
       <c r="K130" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L130" s="4"/>
+      <c r="L130" s="39"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -7756,7 +7847,7 @@
       <c r="K131" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L131" s="4"/>
+      <c r="L131" s="39"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -7804,7 +7895,7 @@
       <c r="K132" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L132" s="4"/>
+      <c r="L132" s="39"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -7852,7 +7943,7 @@
       <c r="K133" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L133" s="4"/>
+      <c r="L133" s="39"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -7900,7 +7991,9 @@
         <v>55</v>
       </c>
       <c r="K134" s="8"/>
-      <c r="L134" s="9"/>
+      <c r="L134" s="40">
+        <v>1</v>
+      </c>
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
       <c r="O134" s="9"/>
@@ -7948,7 +8041,7 @@
         <v>55</v>
       </c>
       <c r="K135" s="3"/>
-      <c r="L135" s="4"/>
+      <c r="L135" s="39"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -7996,7 +8089,9 @@
         <v>55</v>
       </c>
       <c r="K136" s="8"/>
-      <c r="L136" s="9"/>
+      <c r="L136" s="40">
+        <v>1</v>
+      </c>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
       <c r="O136" s="9"/>
@@ -8044,7 +8139,7 @@
         <v>55</v>
       </c>
       <c r="K137" s="8"/>
-      <c r="L137" s="9"/>
+      <c r="L137" s="40"/>
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
       <c r="O137" s="9"/>
@@ -8092,7 +8187,7 @@
       <c r="K138" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L138" s="4"/>
+      <c r="L138" s="39"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
@@ -8140,7 +8235,7 @@
       <c r="K139" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L139" s="4"/>
+      <c r="L139" s="39"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -8188,7 +8283,7 @@
       <c r="K140" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L140" s="4"/>
+      <c r="L140" s="39"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
@@ -8236,7 +8331,7 @@
       <c r="K141" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L141" s="4"/>
+      <c r="L141" s="39"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -8284,7 +8379,7 @@
         <v>163</v>
       </c>
       <c r="K142" s="8"/>
-      <c r="L142" s="9"/>
+      <c r="L142" s="40"/>
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
       <c r="O142" s="9"/>
@@ -8332,7 +8427,7 @@
         <v>163</v>
       </c>
       <c r="K143" s="8"/>
-      <c r="L143" s="9"/>
+      <c r="L143" s="40"/>
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
       <c r="O143" s="9"/>
@@ -8380,7 +8475,7 @@
         <v>55</v>
       </c>
       <c r="K144" s="3"/>
-      <c r="L144" s="4"/>
+      <c r="L144" s="39"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
@@ -8428,7 +8523,7 @@
         <v>55</v>
       </c>
       <c r="K145" s="3"/>
-      <c r="L145" s="4"/>
+      <c r="L145" s="39"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
@@ -8473,7 +8568,7 @@
       <c r="K146" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L146" s="4"/>
+      <c r="L146" s="39"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
@@ -8518,7 +8613,7 @@
       <c r="K147" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L147" s="4"/>
+      <c r="L147" s="39"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
@@ -8563,7 +8658,7 @@
       <c r="K148" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L148" s="4"/>
+      <c r="L148" s="39"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
@@ -8609,7 +8704,7 @@
       <c r="K149" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L149" s="9"/>
+      <c r="L149" s="40"/>
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
       <c r="O149" s="9"/>
@@ -8655,7 +8750,7 @@
         <v>55</v>
       </c>
       <c r="K150" s="8"/>
-      <c r="L150" s="9"/>
+      <c r="L150" s="40"/>
       <c r="M150" s="9"/>
       <c r="N150" s="9"/>
       <c r="O150" s="9"/>
@@ -8701,7 +8796,7 @@
         <v>55</v>
       </c>
       <c r="K151" s="8"/>
-      <c r="L151" s="9"/>
+      <c r="L151" s="40"/>
       <c r="M151" s="9"/>
       <c r="N151" s="9"/>
       <c r="O151" s="9"/>
@@ -8746,7 +8841,7 @@
         <v>55</v>
       </c>
       <c r="K152" s="3"/>
-      <c r="L152" s="4"/>
+      <c r="L152" s="39"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
@@ -8791,7 +8886,7 @@
         <v>55</v>
       </c>
       <c r="K153" s="3"/>
-      <c r="L153" s="4"/>
+      <c r="L153" s="39"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
@@ -8837,7 +8932,7 @@
       <c r="K154" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L154" s="9"/>
+      <c r="L154" s="40"/>
       <c r="M154" s="9"/>
       <c r="N154" s="9"/>
       <c r="O154" s="9"/>
@@ -8882,7 +8977,7 @@
       <c r="K155" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L155" s="4"/>
+      <c r="L155" s="39"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
@@ -8927,7 +9022,7 @@
       <c r="K156" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L156" s="4"/>
+      <c r="L156" s="39"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
@@ -8972,7 +9067,7 @@
       <c r="K157" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L157" s="4"/>
+      <c r="L157" s="39"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
@@ -9018,7 +9113,7 @@
         <v>55</v>
       </c>
       <c r="K158" s="8"/>
-      <c r="L158" s="9"/>
+      <c r="L158" s="40"/>
       <c r="M158" s="9"/>
       <c r="N158" s="9"/>
       <c r="O158" s="9"/>
@@ -9064,7 +9159,7 @@
         <v>55</v>
       </c>
       <c r="K159" s="8"/>
-      <c r="L159" s="9"/>
+      <c r="L159" s="40"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9"/>
       <c r="O159" s="9"/>
@@ -9110,7 +9205,7 @@
         <v>55</v>
       </c>
       <c r="K160" s="8"/>
-      <c r="L160" s="9"/>
+      <c r="L160" s="40"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9"/>
       <c r="O160" s="9"/>
@@ -9156,7 +9251,7 @@
         <v>55</v>
       </c>
       <c r="K161" s="8"/>
-      <c r="L161" s="9"/>
+      <c r="L161" s="40"/>
       <c r="M161" s="9"/>
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
@@ -9201,7 +9296,7 @@
       <c r="K162" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L162" s="4"/>
+      <c r="L162" s="39"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
@@ -9246,7 +9341,7 @@
       <c r="K163" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L163" s="4"/>
+      <c r="L163" s="39"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
@@ -9291,7 +9386,7 @@
       <c r="K164" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L164" s="4"/>
+      <c r="L164" s="39"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
@@ -9336,7 +9431,7 @@
       <c r="K165" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="L165" s="4"/>
+      <c r="L165" s="39"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
@@ -9381,7 +9476,7 @@
         <v>55</v>
       </c>
       <c r="K166" s="3"/>
-      <c r="L166" s="4"/>
+      <c r="L166" s="39"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
@@ -9426,7 +9521,7 @@
         <v>55</v>
       </c>
       <c r="K167" s="3"/>
-      <c r="L167" s="4"/>
+      <c r="L167" s="39"/>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
@@ -9472,7 +9567,7 @@
         <v>55</v>
       </c>
       <c r="K168" s="8"/>
-      <c r="L168" s="9"/>
+      <c r="L168" s="40"/>
       <c r="M168" s="9"/>
       <c r="N168" s="9"/>
       <c r="O168" s="9"/>
@@ -9517,7 +9612,7 @@
         <v>55</v>
       </c>
       <c r="K169" s="3"/>
-      <c r="L169" s="4"/>
+      <c r="L169" s="39"/>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
@@ -9565,7 +9660,7 @@
       <c r="K170" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L170" s="4"/>
+      <c r="L170" s="39"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
@@ -9613,7 +9708,7 @@
       <c r="K171" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L171" s="4"/>
+      <c r="L171" s="39"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
@@ -9661,7 +9756,7 @@
       <c r="K172" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L172" s="4"/>
+      <c r="L172" s="39"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
@@ -9709,7 +9804,7 @@
       <c r="K173" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L173" s="4"/>
+      <c r="L173" s="39"/>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
@@ -9757,7 +9852,9 @@
         <v>58</v>
       </c>
       <c r="K174" s="8"/>
-      <c r="L174" s="9"/>
+      <c r="L174" s="40">
+        <v>1</v>
+      </c>
       <c r="M174" s="9"/>
       <c r="N174" s="9"/>
       <c r="O174" s="9"/>
@@ -9805,7 +9902,7 @@
         <v>55</v>
       </c>
       <c r="K175" s="3"/>
-      <c r="L175" s="4"/>
+      <c r="L175" s="39"/>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
@@ -9853,7 +9950,7 @@
         <v>58</v>
       </c>
       <c r="K176" s="3"/>
-      <c r="L176" s="4"/>
+      <c r="L176" s="39"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
@@ -9901,7 +9998,9 @@
         <v>58</v>
       </c>
       <c r="K177" s="8"/>
-      <c r="L177" s="9"/>
+      <c r="L177" s="40">
+        <v>1</v>
+      </c>
       <c r="M177" s="9"/>
       <c r="N177" s="9"/>
       <c r="O177" s="9"/>
@@ -9949,7 +10048,7 @@
       <c r="K178" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L178" s="4"/>
+      <c r="L178" s="39"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
@@ -9997,7 +10096,7 @@
       <c r="K179" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L179" s="4"/>
+      <c r="L179" s="39"/>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
@@ -10045,7 +10144,9 @@
       <c r="K180" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L180" s="9"/>
+      <c r="L180" s="40">
+        <v>1</v>
+      </c>
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
       <c r="O180" s="9"/>
@@ -10093,7 +10194,7 @@
       <c r="K181" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L181" s="4"/>
+      <c r="L181" s="39"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
@@ -10141,7 +10242,7 @@
         <v>58</v>
       </c>
       <c r="K182" s="8"/>
-      <c r="L182" s="9"/>
+      <c r="L182" s="40"/>
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
       <c r="O182" s="9"/>
@@ -10189,7 +10290,7 @@
         <v>58</v>
       </c>
       <c r="K183" s="3"/>
-      <c r="L183" s="4"/>
+      <c r="L183" s="39"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
@@ -10237,7 +10338,7 @@
         <v>58</v>
       </c>
       <c r="K184" s="3"/>
-      <c r="L184" s="4"/>
+      <c r="L184" s="39"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
@@ -10285,7 +10386,7 @@
         <v>58</v>
       </c>
       <c r="K185" s="3"/>
-      <c r="L185" s="4"/>
+      <c r="L185" s="39"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
@@ -10333,7 +10434,7 @@
       <c r="K186" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L186" s="4"/>
+      <c r="L186" s="39"/>
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
@@ -10381,7 +10482,7 @@
       <c r="K187" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L187" s="4"/>
+      <c r="L187" s="39"/>
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
@@ -10429,7 +10530,7 @@
       <c r="K188" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L188" s="4"/>
+      <c r="L188" s="39"/>
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
@@ -10477,7 +10578,7 @@
       <c r="K189" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L189" s="4"/>
+      <c r="L189" s="39"/>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
@@ -10525,7 +10626,7 @@
         <v>58</v>
       </c>
       <c r="K190" s="3"/>
-      <c r="L190" s="4"/>
+      <c r="L190" s="39"/>
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
@@ -10573,7 +10674,7 @@
         <v>55</v>
       </c>
       <c r="K191" s="3"/>
-      <c r="L191" s="4"/>
+      <c r="L191" s="39"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
@@ -10621,7 +10722,7 @@
         <v>55</v>
       </c>
       <c r="K192" s="8"/>
-      <c r="L192" s="9"/>
+      <c r="L192" s="40"/>
       <c r="M192" s="9"/>
       <c r="N192" s="9"/>
       <c r="O192" s="9"/>
@@ -10669,7 +10770,9 @@
         <v>58</v>
       </c>
       <c r="K193" s="3"/>
-      <c r="L193" s="4"/>
+      <c r="L193" s="39">
+        <v>1</v>
+      </c>
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
@@ -10688,7 +10791,7 @@
     <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J194" s="2"/>
       <c r="K194" s="3"/>
-      <c r="L194" s="4"/>
+      <c r="L194" s="39"/>
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
@@ -10707,7 +10810,7 @@
     <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J195" s="2"/>
       <c r="K195" s="3"/>
-      <c r="L195" s="4"/>
+      <c r="L195" s="39"/>
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
@@ -10726,7 +10829,7 @@
     <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J196" s="2"/>
       <c r="K196" s="3"/>
-      <c r="L196" s="4"/>
+      <c r="L196" s="39"/>
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
@@ -10745,7 +10848,7 @@
     <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J197" s="2"/>
       <c r="K197" s="3"/>
-      <c r="L197" s="4"/>
+      <c r="L197" s="39"/>
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
@@ -10764,7 +10867,7 @@
     <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J198" s="2"/>
       <c r="K198" s="3"/>
-      <c r="L198" s="4"/>
+      <c r="L198" s="39"/>
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
@@ -10783,7 +10886,7 @@
     <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J199" s="2"/>
       <c r="K199" s="3"/>
-      <c r="L199" s="4"/>
+      <c r="L199" s="39"/>
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
@@ -10802,7 +10905,7 @@
     <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J200" s="2"/>
       <c r="K200" s="3"/>
-      <c r="L200" s="4"/>
+      <c r="L200" s="39"/>
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
